--- a/medicine/Enfance/Pierdomenico_Baccalario/Pierdomenico_Baccalario.xlsx
+++ b/medicine/Enfance/Pierdomenico_Baccalario/Pierdomenico_Baccalario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierdomenico Baccalario (en français Pierre-Dominique Bachelard), né le 6 mars 1974 à Acqui Terme, dans la province d'Alexandrie, dans le Piémont, est un écrivain italien de littérature de jeunesse. Il est principalement connu pour ses séries Ulysse Moore, traduite en français par Marion Spengler et Simone Sow, et Century, traduite en français par Jacques Barbéri.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 6 mars 1974 à Acqui Terme, dans la province d'Alexandrie, dans le Piémont, Pierdomenico Baccalario est un auteur italien de littérature d'enfance et de jeunesse des XXe et XXIe siècles. Avocat puis journaliste, il réalise ensuite des jeux de rôle, de table et des jeux vidéo.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Ulysse Moore
-Les Clefs du temps ((it) La porta del tempo, 2004)
+          <t>Série Ulysse Moore</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Clefs du temps ((it) La porta del tempo, 2004)
 La Boutique des cartes perdues ((it) La bottega delle mappe dimenticate, 2005)
 La Maison aux miroirs ((it) La casa degli specchi, 2005)
 L'Île aux masques ((it) L'isola delle maschere, 2006)
@@ -562,19 +581,121 @@
 (it) I pirati dei mari immaginari, 2014
 (it) L'isola dei ribelli, 2015
 (it) L'ora della battaglia, 2015
-(it) La grande estate, 2016
-Série Century
-L'Anneau de feu ((it) L'anello di fuoco, 2006)
+(it) La grande estate, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierdomenico_Baccalario</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierdomenico_Baccalario</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Century</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Anneau de feu ((it) L'anello di fuoco, 2006)
 L'Étoile de pierre ((it) La stella di pietra, 2007)
 La Ville du vent ((it) La città del vento, 2007)
-La Première Source ((it) La prima sorgente, 2008)
-Série La Boutique Vif-Argent
-Une valise d'étoiles, 2015 ((it) Una valigia di stelle, 2012)
+La Première Source ((it) La prima sorgente, 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierdomenico_Baccalario</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierdomenico_Baccalario</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série La Boutique Vif-Argent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une valise d'étoiles, 2015 ((it) Una valigia di stelle, 2012)
 La Boussole des rêves, 2015 ((it) La bussola dei sogni, 2012)
 La Carte des passages, 2016 ((it) La mappa dei passaggi, 2013)
-(it) La ladra di specchi, 2013
-Série Typos
-Typos fragments de vérité (2014)
+(it) La ladra di specchi, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierdomenico_Baccalario</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierdomenico_Baccalario</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Typos</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typos fragments de vérité (2014)
 Typos, Poison noir (2014)</t>
         </is>
       </c>
